--- a/bio_diversity/static/data_templates/mactaquac-pit_tagging.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-pit_tagging.xlsx
@@ -69,6 +69,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="F3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
@@ -76,9 +89,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional</t>
+            <charset val="1"/>
+          </rPr>
+          <t>eg. Bonell</t>
         </r>
       </text>
     </comment>
@@ -91,24 +104,11 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>eg. Bonell</t>
+          <t>eg: BSR</t>
         </r>
       </text>
     </comment>
     <comment ref="I3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>eg: BSR</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,6 +122,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="J3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fill in to record current container, or if movement occurred.  Leave blank if movement origin is unknown.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K3" authorId="0" shapeId="0">
       <text>
         <r>
@@ -131,7 +144,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Fill in to record current container, or if movement occurred.  Leave blank if movement origin is unknown.</t>
+          <t>Fill in if a movement occurred, or if origin tank is unknown.</t>
         </r>
       </text>
     </comment>
@@ -142,9 +155,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Fill in if a movement occurred, or if origin tank is unknown.</t>
+            <charset val="1"/>
+          </rPr>
+          <t>eg: AB, CD</t>
         </r>
       </text>
     </comment>
@@ -157,7 +170,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>eg: AB, CD</t>
+          <t>Optional, units can be set to either (mm) or (cm)</t>
         </r>
       </text>
     </comment>
@@ -170,24 +183,11 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Optional, units can be set to either (mm) or (cm)</t>
+          <t>Optional, units can be set to either (g) or (kg)</t>
         </r>
       </text>
     </comment>
     <comment ref="O3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Optional, units can be set to either (g) or (kg)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -223,9 +223,6 @@
     <t>Vial Number</t>
   </si>
   <si>
-    <t>PIT Scanned</t>
-  </si>
-  <si>
     <t>PIT</t>
   </si>
   <si>
@@ -269,6 +266,9 @@
   </si>
   <si>
     <t>UFID</t>
+  </si>
+  <si>
+    <t>Tissue Sample</t>
   </si>
 </sst>
 </file>
@@ -639,7 +639,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:L3"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,34 +648,33 @@
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" customWidth="1"/>
     <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
@@ -684,40 +683,40 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>10</v>
+      <c r="J3" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/bio_diversity/static/data_templates/mactaquac-pit_tagging.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-pit_tagging.xlsx
@@ -168,13 +168,26 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
           <t>Optional, units can be set to either (mm) or (cm)</t>
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
+    <comment ref="O3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -187,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0" shapeId="0">
+    <comment ref="P3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0" shapeId="0">
+    <comment ref="R3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Vial Number</t>
   </si>
@@ -269,6 +282,9 @@
   </si>
   <si>
     <t>Tissue Sample</t>
+  </si>
+  <si>
+    <t>Sex</t>
   </si>
 </sst>
 </file>
@@ -304,7 +320,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,12 +330,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -355,7 +365,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,18 +664,18 @@
     <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -694,28 +703,31 @@
       <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/bio_diversity/static/data_templates/mactaquac-pit_tagging.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-pit_tagging.xlsx
@@ -36,7 +36,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">eg: 1999
 </t>
@@ -50,7 +50,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>eg: Jan</t>
         </r>
@@ -63,7 +63,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>eg: 1</t>
         </r>
@@ -89,7 +89,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>eg. Bonell</t>
         </r>
@@ -102,27 +102,42 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Group mark, optional. 
+Eg. Adipose Clip
+Must match code in DB.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>eg: BSR</t>
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+    <comment ref="J3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 eg: 1999 FP</t>
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="K3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0">
+    <comment ref="L3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -148,20 +163,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+    <comment ref="M3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>eg: AB, CD</t>
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
+    <comment ref="N3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -174,53 +189,53 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+    <comment ref="O3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Optional, units can be set to either (mm) or (cm)</t>
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+    <comment ref="P3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Optional, units can be set to either (g) or (kg)</t>
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+    <comment ref="Q3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Optional</t>
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+    <comment ref="S3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Optional</t>
         </r>
@@ -231,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Vial Number</t>
   </si>
@@ -285,13 +300,16 @@
   </si>
   <si>
     <t>Sex</t>
+  </si>
+  <si>
+    <t>Mark</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,16 +329,10 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,6 +342,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -363,6 +381,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -645,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,22 +681,23 @@
     <col min="5" max="5" width="13.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -697,37 +719,40 @@
       <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/bio_diversity/static/data_templates/mactaquac-pit_tagging.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-pit_tagging.xlsx
@@ -198,11 +198,25 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Use full name
+Eg. Fry/Parr/Smolt</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Optional, units can be set to either (mm) or (cm)</t>
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0" shapeId="0">
+    <comment ref="Q3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0" shapeId="0">
+    <comment ref="R3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="0" shapeId="0">
+    <comment ref="T3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -246,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Vial Number</t>
   </si>
@@ -303,6 +317,9 @@
   </si>
   <si>
     <t>Mark</t>
+  </si>
+  <si>
+    <t>Lifestage</t>
   </si>
 </sst>
 </file>
@@ -332,18 +349,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -373,19 +384,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,81 +690,84 @@
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:20" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/bio_diversity/static/data_templates/mactaquac-pit_tagging.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-pit_tagging.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyelq\Desktop\Work\dm_apps\dm_apps\bio_diversity\static\data_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EB4EA1-7131-4776-A65D-1F190AFAF441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7560"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="2" r:id="rId1"/>
@@ -23,244 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Stoyel, Quentin</author>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">eg: 1999
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>eg: Jan</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>eg: 1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>eg. Bonell</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Group mark, optional. 
-Eg. Adipose Clip
-Must match code in DB.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>eg: BSR</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-eg: 1999 FP</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Fill in to record current container, or if movement occurred.  Leave blank if movement origin is unknown.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Fill in if a movement occurred, or if origin tank is unknown.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>eg: AB, CD</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Use full name
-Eg. Fry/Parr/Smolt</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional, units can be set to either (mm) or (cm)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional, units can be set to either (g) or (kg)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Vial Number</t>
   </si>
@@ -320,12 +85,66 @@
   </si>
   <si>
     <t>Lifestage</t>
+  </si>
+  <si>
+    <t>eg. 1999</t>
+  </si>
+  <si>
+    <t>eg, Apr, Sep</t>
+  </si>
+  <si>
+    <t>eg. 1</t>
+  </si>
+  <si>
+    <t>Pit tag as in database</t>
+  </si>
+  <si>
+    <t>Fill in to record current container, or if movement occurred.  Leave blank if movement origin is unknown.</t>
+  </si>
+  <si>
+    <t>Fill in if a movement occurred, or if origin tank is unknown.</t>
+  </si>
+  <si>
+    <t>eg. M/F/I</t>
+  </si>
+  <si>
+    <t>Units can be set in header to (cm) or (mm), optional</t>
+  </si>
+  <si>
+    <t>Units can be set in header to (g) or (kg), optional</t>
+  </si>
+  <si>
+    <t>Vial Number, optional</t>
+  </si>
+  <si>
+    <t>Use full name Eg. Fry/Parr/Smolt. Optional</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Eg. Bonell. Optional</t>
+  </si>
+  <si>
+    <t>Eg. Adipose Clip. Must match code in database. Optional</t>
+  </si>
+  <si>
+    <t>Eg. BSR</t>
+  </si>
+  <si>
+    <t>eg. 1999 FP</t>
+  </si>
+  <si>
+    <t>Optional. Y/N</t>
+  </si>
+  <si>
+    <t>Eg. AB, CD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -343,8 +162,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -363,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -380,24 +199,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,11 +525,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:RU3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,13 +538,13 @@
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.5703125" customWidth="1"/>
     <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="12.28515625" customWidth="1"/>
     <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -705,75 +553,593 @@
     <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+    <row r="2" spans="1:489" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>4</v>
-      </c>
+    <row r="3" spans="1:489" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="4"/>
+      <c r="BH3" s="4"/>
+      <c r="BI3" s="4"/>
+      <c r="BJ3" s="4"/>
+      <c r="BK3" s="4"/>
+      <c r="BL3" s="4"/>
+      <c r="BM3" s="4"/>
+      <c r="BN3" s="4"/>
+      <c r="BO3" s="4"/>
+      <c r="BP3" s="4"/>
+      <c r="BQ3" s="4"/>
+      <c r="BR3" s="4"/>
+      <c r="BS3" s="4"/>
+      <c r="BT3" s="4"/>
+      <c r="BU3" s="4"/>
+      <c r="BV3" s="4"/>
+      <c r="BW3" s="4"/>
+      <c r="BX3" s="4"/>
+      <c r="BY3" s="4"/>
+      <c r="BZ3" s="4"/>
+      <c r="CA3" s="4"/>
+      <c r="CB3" s="4"/>
+      <c r="CC3" s="4"/>
+      <c r="CD3" s="4"/>
+      <c r="CE3" s="4"/>
+      <c r="CF3" s="4"/>
+      <c r="CG3" s="4"/>
+      <c r="CH3" s="4"/>
+      <c r="CI3" s="4"/>
+      <c r="CJ3" s="4"/>
+      <c r="CK3" s="4"/>
+      <c r="CL3" s="4"/>
+      <c r="CM3" s="4"/>
+      <c r="CN3" s="4"/>
+      <c r="CO3" s="4"/>
+      <c r="CP3" s="4"/>
+      <c r="CQ3" s="4"/>
+      <c r="CR3" s="4"/>
+      <c r="CS3" s="4"/>
+      <c r="CT3" s="4"/>
+      <c r="CU3" s="4"/>
+      <c r="CV3" s="4"/>
+      <c r="CW3" s="4"/>
+      <c r="CX3" s="4"/>
+      <c r="CY3" s="4"/>
+      <c r="CZ3" s="4"/>
+      <c r="DA3" s="4"/>
+      <c r="DB3" s="4"/>
+      <c r="DC3" s="4"/>
+      <c r="DD3" s="4"/>
+      <c r="DE3" s="4"/>
+      <c r="DF3" s="4"/>
+      <c r="DG3" s="4"/>
+      <c r="DH3" s="4"/>
+      <c r="DI3" s="4"/>
+      <c r="DJ3" s="4"/>
+      <c r="DK3" s="4"/>
+      <c r="DL3" s="4"/>
+      <c r="DM3" s="4"/>
+      <c r="DN3" s="4"/>
+      <c r="DO3" s="4"/>
+      <c r="DP3" s="4"/>
+      <c r="DQ3" s="4"/>
+      <c r="DR3" s="4"/>
+      <c r="DS3" s="4"/>
+      <c r="DT3" s="4"/>
+      <c r="DU3" s="4"/>
+      <c r="DV3" s="4"/>
+      <c r="DW3" s="4"/>
+      <c r="DX3" s="4"/>
+      <c r="DY3" s="4"/>
+      <c r="DZ3" s="4"/>
+      <c r="EA3" s="4"/>
+      <c r="EB3" s="4"/>
+      <c r="EC3" s="4"/>
+      <c r="ED3" s="4"/>
+      <c r="EE3" s="4"/>
+      <c r="EF3" s="4"/>
+      <c r="EG3" s="4"/>
+      <c r="EH3" s="4"/>
+      <c r="EI3" s="4"/>
+      <c r="EJ3" s="4"/>
+      <c r="EK3" s="4"/>
+      <c r="EL3" s="4"/>
+      <c r="EM3" s="4"/>
+      <c r="EN3" s="4"/>
+      <c r="EO3" s="4"/>
+      <c r="EP3" s="4"/>
+      <c r="EQ3" s="4"/>
+      <c r="ER3" s="4"/>
+      <c r="ES3" s="4"/>
+      <c r="ET3" s="4"/>
+      <c r="EU3" s="4"/>
+      <c r="EV3" s="4"/>
+      <c r="EW3" s="4"/>
+      <c r="EX3" s="4"/>
+      <c r="EY3" s="4"/>
+      <c r="EZ3" s="4"/>
+      <c r="FA3" s="4"/>
+      <c r="FB3" s="4"/>
+      <c r="FC3" s="4"/>
+      <c r="FD3" s="4"/>
+      <c r="FE3" s="4"/>
+      <c r="FF3" s="4"/>
+      <c r="FG3" s="4"/>
+      <c r="FH3" s="4"/>
+      <c r="FI3" s="4"/>
+      <c r="FJ3" s="4"/>
+      <c r="FK3" s="4"/>
+      <c r="FL3" s="4"/>
+      <c r="FM3" s="4"/>
+      <c r="FN3" s="4"/>
+      <c r="FO3" s="4"/>
+      <c r="FP3" s="4"/>
+      <c r="FQ3" s="4"/>
+      <c r="FR3" s="4"/>
+      <c r="FS3" s="4"/>
+      <c r="FT3" s="4"/>
+      <c r="FU3" s="4"/>
+      <c r="FV3" s="4"/>
+      <c r="FW3" s="4"/>
+      <c r="FX3" s="4"/>
+      <c r="FY3" s="4"/>
+      <c r="FZ3" s="4"/>
+      <c r="GA3" s="4"/>
+      <c r="GB3" s="4"/>
+      <c r="GC3" s="4"/>
+      <c r="GD3" s="4"/>
+      <c r="GE3" s="4"/>
+      <c r="GF3" s="4"/>
+      <c r="GG3" s="4"/>
+      <c r="GH3" s="4"/>
+      <c r="GI3" s="4"/>
+      <c r="GJ3" s="4"/>
+      <c r="GK3" s="4"/>
+      <c r="GL3" s="4"/>
+      <c r="GM3" s="4"/>
+      <c r="GN3" s="4"/>
+      <c r="GO3" s="4"/>
+      <c r="GP3" s="4"/>
+      <c r="GQ3" s="4"/>
+      <c r="GR3" s="4"/>
+      <c r="GS3" s="4"/>
+      <c r="GT3" s="4"/>
+      <c r="GU3" s="4"/>
+      <c r="GV3" s="4"/>
+      <c r="GW3" s="4"/>
+      <c r="GX3" s="4"/>
+      <c r="GY3" s="4"/>
+      <c r="GZ3" s="4"/>
+      <c r="HA3" s="4"/>
+      <c r="HB3" s="4"/>
+      <c r="HC3" s="4"/>
+      <c r="HD3" s="4"/>
+      <c r="HE3" s="4"/>
+      <c r="HF3" s="4"/>
+      <c r="HG3" s="4"/>
+      <c r="HH3" s="4"/>
+      <c r="HI3" s="4"/>
+      <c r="HJ3" s="4"/>
+      <c r="HK3" s="4"/>
+      <c r="HL3" s="4"/>
+      <c r="HM3" s="4"/>
+      <c r="HN3" s="4"/>
+      <c r="HO3" s="4"/>
+      <c r="HP3" s="4"/>
+      <c r="HQ3" s="4"/>
+      <c r="HR3" s="4"/>
+      <c r="HS3" s="4"/>
+      <c r="HT3" s="4"/>
+      <c r="HU3" s="4"/>
+      <c r="HV3" s="4"/>
+      <c r="HW3" s="4"/>
+      <c r="HX3" s="4"/>
+      <c r="HY3" s="4"/>
+      <c r="HZ3" s="4"/>
+      <c r="IA3" s="4"/>
+      <c r="IB3" s="4"/>
+      <c r="IC3" s="4"/>
+      <c r="ID3" s="4"/>
+      <c r="IE3" s="4"/>
+      <c r="IF3" s="4"/>
+      <c r="IG3" s="4"/>
+      <c r="IH3" s="4"/>
+      <c r="II3" s="4"/>
+      <c r="IJ3" s="4"/>
+      <c r="IK3" s="4"/>
+      <c r="IL3" s="4"/>
+      <c r="IM3" s="4"/>
+      <c r="IN3" s="4"/>
+      <c r="IO3" s="4"/>
+      <c r="IP3" s="4"/>
+      <c r="IQ3" s="4"/>
+      <c r="IR3" s="4"/>
+      <c r="IS3" s="4"/>
+      <c r="IT3" s="4"/>
+      <c r="IU3" s="4"/>
+      <c r="IV3" s="4"/>
+      <c r="IW3" s="4"/>
+      <c r="IX3" s="4"/>
+      <c r="IY3" s="4"/>
+      <c r="IZ3" s="4"/>
+      <c r="JA3" s="4"/>
+      <c r="JB3" s="4"/>
+      <c r="JC3" s="4"/>
+      <c r="JD3" s="4"/>
+      <c r="JE3" s="4"/>
+      <c r="JF3" s="4"/>
+      <c r="JG3" s="4"/>
+      <c r="JH3" s="4"/>
+      <c r="JI3" s="4"/>
+      <c r="JJ3" s="4"/>
+      <c r="JK3" s="4"/>
+      <c r="JL3" s="4"/>
+      <c r="JM3" s="4"/>
+      <c r="JN3" s="4"/>
+      <c r="JO3" s="4"/>
+      <c r="JP3" s="4"/>
+      <c r="JQ3" s="4"/>
+      <c r="JR3" s="4"/>
+      <c r="JS3" s="4"/>
+      <c r="JT3" s="4"/>
+      <c r="JU3" s="4"/>
+      <c r="JV3" s="4"/>
+      <c r="JW3" s="4"/>
+      <c r="JX3" s="4"/>
+      <c r="JY3" s="4"/>
+      <c r="JZ3" s="4"/>
+      <c r="KA3" s="4"/>
+      <c r="KB3" s="4"/>
+      <c r="KC3" s="4"/>
+      <c r="KD3" s="4"/>
+      <c r="KE3" s="4"/>
+      <c r="KF3" s="4"/>
+      <c r="KG3" s="4"/>
+      <c r="KH3" s="4"/>
+      <c r="KI3" s="4"/>
+      <c r="KJ3" s="4"/>
+      <c r="KK3" s="4"/>
+      <c r="KL3" s="4"/>
+      <c r="KM3" s="4"/>
+      <c r="KN3" s="4"/>
+      <c r="KO3" s="4"/>
+      <c r="KP3" s="4"/>
+      <c r="KQ3" s="4"/>
+      <c r="KR3" s="4"/>
+      <c r="KS3" s="4"/>
+      <c r="KT3" s="4"/>
+      <c r="KU3" s="4"/>
+      <c r="KV3" s="4"/>
+      <c r="KW3" s="4"/>
+      <c r="KX3" s="4"/>
+      <c r="KY3" s="4"/>
+      <c r="KZ3" s="4"/>
+      <c r="LA3" s="4"/>
+      <c r="LB3" s="4"/>
+      <c r="LC3" s="4"/>
+      <c r="LD3" s="4"/>
+      <c r="LE3" s="4"/>
+      <c r="LF3" s="4"/>
+      <c r="LG3" s="4"/>
+      <c r="LH3" s="4"/>
+      <c r="LI3" s="4"/>
+      <c r="LJ3" s="4"/>
+      <c r="LK3" s="4"/>
+      <c r="LL3" s="4"/>
+      <c r="LM3" s="4"/>
+      <c r="LN3" s="4"/>
+      <c r="LO3" s="4"/>
+      <c r="LP3" s="4"/>
+      <c r="LQ3" s="4"/>
+      <c r="LR3" s="4"/>
+      <c r="LS3" s="4"/>
+      <c r="LT3" s="4"/>
+      <c r="LU3" s="4"/>
+      <c r="LV3" s="4"/>
+      <c r="LW3" s="4"/>
+      <c r="LX3" s="4"/>
+      <c r="LY3" s="4"/>
+      <c r="LZ3" s="4"/>
+      <c r="MA3" s="4"/>
+      <c r="MB3" s="4"/>
+      <c r="MC3" s="4"/>
+      <c r="MD3" s="4"/>
+      <c r="ME3" s="4"/>
+      <c r="MF3" s="4"/>
+      <c r="MG3" s="4"/>
+      <c r="MH3" s="4"/>
+      <c r="MI3" s="4"/>
+      <c r="MJ3" s="4"/>
+      <c r="MK3" s="4"/>
+      <c r="ML3" s="4"/>
+      <c r="MM3" s="4"/>
+      <c r="MN3" s="4"/>
+      <c r="MO3" s="4"/>
+      <c r="MP3" s="4"/>
+      <c r="MQ3" s="4"/>
+      <c r="MR3" s="4"/>
+      <c r="MS3" s="4"/>
+      <c r="MT3" s="4"/>
+      <c r="MU3" s="4"/>
+      <c r="MV3" s="4"/>
+      <c r="MW3" s="4"/>
+      <c r="MX3" s="4"/>
+      <c r="MY3" s="4"/>
+      <c r="MZ3" s="4"/>
+      <c r="NA3" s="4"/>
+      <c r="NB3" s="4"/>
+      <c r="NC3" s="4"/>
+      <c r="ND3" s="4"/>
+      <c r="NE3" s="4"/>
+      <c r="NF3" s="4"/>
+      <c r="NG3" s="4"/>
+      <c r="NH3" s="4"/>
+      <c r="NI3" s="4"/>
+      <c r="NJ3" s="4"/>
+      <c r="NK3" s="4"/>
+      <c r="NL3" s="4"/>
+      <c r="NM3" s="4"/>
+      <c r="NN3" s="4"/>
+      <c r="NO3" s="4"/>
+      <c r="NP3" s="4"/>
+      <c r="NQ3" s="4"/>
+      <c r="NR3" s="4"/>
+      <c r="NS3" s="4"/>
+      <c r="NT3" s="4"/>
+      <c r="NU3" s="4"/>
+      <c r="NV3" s="4"/>
+      <c r="NW3" s="4"/>
+      <c r="NX3" s="4"/>
+      <c r="NY3" s="4"/>
+      <c r="NZ3" s="4"/>
+      <c r="OA3" s="4"/>
+      <c r="OB3" s="4"/>
+      <c r="OC3" s="4"/>
+      <c r="OD3" s="4"/>
+      <c r="OE3" s="4"/>
+      <c r="OF3" s="4"/>
+      <c r="OG3" s="4"/>
+      <c r="OH3" s="4"/>
+      <c r="OI3" s="4"/>
+      <c r="OJ3" s="4"/>
+      <c r="OK3" s="4"/>
+      <c r="OL3" s="4"/>
+      <c r="OM3" s="4"/>
+      <c r="ON3" s="4"/>
+      <c r="OO3" s="4"/>
+      <c r="OP3" s="4"/>
+      <c r="OQ3" s="4"/>
+      <c r="OR3" s="4"/>
+      <c r="OS3" s="4"/>
+      <c r="OT3" s="4"/>
+      <c r="OU3" s="4"/>
+      <c r="OV3" s="4"/>
+      <c r="OW3" s="4"/>
+      <c r="OX3" s="4"/>
+      <c r="OY3" s="4"/>
+      <c r="OZ3" s="4"/>
+      <c r="PA3" s="4"/>
+      <c r="PB3" s="4"/>
+      <c r="PC3" s="4"/>
+      <c r="PD3" s="4"/>
+      <c r="PE3" s="4"/>
+      <c r="PF3" s="4"/>
+      <c r="PG3" s="4"/>
+      <c r="PH3" s="4"/>
+      <c r="PI3" s="4"/>
+      <c r="PJ3" s="4"/>
+      <c r="PK3" s="4"/>
+      <c r="PL3" s="4"/>
+      <c r="PM3" s="4"/>
+      <c r="PN3" s="4"/>
+      <c r="PO3" s="4"/>
+      <c r="PP3" s="4"/>
+      <c r="PQ3" s="4"/>
+      <c r="PR3" s="4"/>
+      <c r="PS3" s="4"/>
+      <c r="PT3" s="4"/>
+      <c r="PU3" s="4"/>
+      <c r="PV3" s="4"/>
+      <c r="PW3" s="4"/>
+      <c r="PX3" s="4"/>
+      <c r="PY3" s="4"/>
+      <c r="PZ3" s="4"/>
+      <c r="QA3" s="4"/>
+      <c r="QB3" s="4"/>
+      <c r="QC3" s="4"/>
+      <c r="QD3" s="4"/>
+      <c r="QE3" s="4"/>
+      <c r="QF3" s="4"/>
+      <c r="QG3" s="4"/>
+      <c r="QH3" s="4"/>
+      <c r="QI3" s="4"/>
+      <c r="QJ3" s="4"/>
+      <c r="QK3" s="4"/>
+      <c r="QL3" s="4"/>
+      <c r="QM3" s="4"/>
+      <c r="QN3" s="4"/>
+      <c r="QO3" s="4"/>
+      <c r="QP3" s="4"/>
+      <c r="QQ3" s="4"/>
+      <c r="QR3" s="4"/>
+      <c r="QS3" s="4"/>
+      <c r="QT3" s="4"/>
+      <c r="QU3" s="4"/>
+      <c r="QV3" s="4"/>
+      <c r="QW3" s="4"/>
+      <c r="QX3" s="4"/>
+      <c r="QY3" s="4"/>
+      <c r="QZ3" s="4"/>
+      <c r="RA3" s="4"/>
+      <c r="RB3" s="4"/>
+      <c r="RC3" s="4"/>
+      <c r="RD3" s="4"/>
+      <c r="RE3" s="4"/>
+      <c r="RF3" s="4"/>
+      <c r="RG3" s="4"/>
+      <c r="RH3" s="4"/>
+      <c r="RI3" s="4"/>
+      <c r="RJ3" s="4"/>
+      <c r="RK3" s="4"/>
+      <c r="RL3" s="4"/>
+      <c r="RM3" s="4"/>
+      <c r="RN3" s="4"/>
+      <c r="RO3" s="4"/>
+      <c r="RP3" s="4"/>
+      <c r="RQ3" s="4"/>
+      <c r="RR3" s="4"/>
+      <c r="RS3" s="4"/>
+      <c r="RT3" s="4"/>
+      <c r="RU3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bio_diversity/static/data_templates/mactaquac-pit_tagging.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-pit_tagging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyelq\Desktop\Work\dm_apps\dm_apps\bio_diversity\static\data_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EB4EA1-7131-4776-A65D-1F190AFAF441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED02B96A-5F9A-4968-8A79-853674ADBC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,12 +99,6 @@
     <t>Pit tag as in database</t>
   </si>
   <si>
-    <t>Fill in to record current container, or if movement occurred.  Leave blank if movement origin is unknown.</t>
-  </si>
-  <si>
-    <t>Fill in if a movement occurred, or if origin tank is unknown.</t>
-  </si>
-  <si>
     <t>eg. M/F/I</t>
   </si>
   <si>
@@ -139,6 +133,12 @@
   </si>
   <si>
     <t>Eg. AB, CD</t>
+  </si>
+  <si>
+    <t>Fill in to record current container, or if movement occurred.  Leave blank if movement origin is unknown. E.g. LP1</t>
+  </si>
+  <si>
+    <t>Fill in if a movement occurred, or if origin tank is unknown. E.g. LP1</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
   <dimension ref="A2:RU3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,55 +626,55 @@
         <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="T3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>

--- a/bio_diversity/static/data_templates/mactaquac-pit_tagging.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-pit_tagging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyelq\Desktop\Work\dm_apps\dm_apps\bio_diversity\static\data_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED02B96A-5F9A-4968-8A79-853674ADBC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC62B80E-3892-485E-92B8-AD7830F835EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,12 +66,6 @@
     <t>Day</t>
   </si>
   <si>
-    <t>Weight (kg)</t>
-  </si>
-  <si>
-    <t>Length (mm)</t>
-  </si>
-  <si>
     <t>UFID</t>
   </si>
   <si>
@@ -139,6 +133,12 @@
   </si>
   <si>
     <t>Fill in if a movement occurred, or if origin tank is unknown. E.g. LP1</t>
+  </si>
+  <si>
+    <t>Length (cm)</t>
+  </si>
+  <si>
+    <t>Weight (g)</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
   <dimension ref="A2:RU3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,13 +570,13 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>8</v>
@@ -594,22 +594,22 @@
         <v>5</v>
       </c>
       <c r="N2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="P2" s="5" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>4</v>
@@ -617,64 +617,64 @@
     </row>
     <row r="3" spans="1:489" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="O3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="T3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
